--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_13_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_13_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2470315.512520141</v>
+        <v>-2473244.707898334</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>27.75851419067581</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.15942171964162</v>
+        <v>27.75851419067634</v>
       </c>
       <c r="H5" t="n">
-        <v>10.29027757950563</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>27.75851419067581</v>
+        <v>27.75851419067634</v>
       </c>
       <c r="S5" t="n">
-        <v>27.75851419067581</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>17.57365355743628</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>27.75851419067634</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -981,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>24.44969929914772</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>27.75851419067581</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>24.44969929914726</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>27.75851419067581</v>
+        <v>27.75851419067634</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>27.75851419067581</v>
+        <v>27.75851419067634</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>27.75851419067634</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>27.75851419067634</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>24.44969929914725</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>27.75851419067581</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>27.75851419067581</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.75851419067581</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>27.75851419067634</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>27.75851419067634</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>24.44969929914772</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>72.93385014149857</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>239.8079481415051</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>12.9169039459368</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="X8" t="n">
-        <v>192.1210419231145</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,10 +1212,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>99.90681807664345</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>18.69132020543044</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.90078060183509</v>
+        <v>20.90078060183515</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T9" t="n">
         <v>195.0194028815133</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>88.95573540985561</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>159.5088061074024</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>228.5424802426371</v>
       </c>
       <c r="W10" t="n">
-        <v>239.8079481415051</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,13 +1376,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.1644063769637</v>
+        <v>337.1715651521758</v>
       </c>
       <c r="H11" t="n">
         <v>286.8518683469699</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>314.0485690224844</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.6861009032421</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>124.4576992931011</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>218.097472392356</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1933087134791</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>162.2646013570425</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>286.8518683469699</v>
       </c>
       <c r="I14" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>91.93034877516573</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>200.6028050067863</v>
       </c>
       <c r="U14" t="n">
-        <v>88.54452890168409</v>
+        <v>250.9345864167828</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1670,10 +1670,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>301.0458280374727</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H15" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I15" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1780,10 +1780,10 @@
         <v>165.6861009032421</v>
       </c>
       <c r="H16" t="n">
-        <v>141.7347076965137</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>86.13649374674408</v>
+        <v>19.60335471046309</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>73.65767465442975</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>183.8488525946973</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>50.47515215646654</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D17" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G17" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H17" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295174</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V17" t="n">
-        <v>296.1420561179215</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W17" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X17" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H18" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C19" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659973</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G19" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H19" t="n">
         <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453008</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S19" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T19" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V19" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W19" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D20" t="n">
         <v>323.072839268469</v>
@@ -2090,10 +2090,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F20" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G20" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H20" t="n">
         <v>255.2416659947559</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295174</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T20" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U20" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V20" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W20" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X20" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y20" t="n">
         <v>354.6277363038396</v>
@@ -2175,10 +2175,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H21" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.2217778297246</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C22" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D22" t="n">
         <v>117.0052706659984</v>
@@ -2248,16 +2248,16 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F22" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G22" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H22" t="n">
         <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453008</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424833</v>
@@ -2293,16 +2293,16 @@
         <v>186.487270040142</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V22" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W22" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X22" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y22" t="n">
         <v>186.9744509998808</v>
@@ -2318,19 +2318,19 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D23" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684687</v>
       </c>
       <c r="E23" t="n">
         <v>350.3201677200478</v>
       </c>
       <c r="F23" t="n">
-        <v>375.265843389497</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G23" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H23" t="n">
         <v>255.2416659947559</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295174</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T23" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U23" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V23" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W23" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X23" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y23" t="n">
         <v>354.6277363038396</v>
@@ -2412,10 +2412,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H24" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I24" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297229</v>
       </c>
       <c r="C25" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D25" t="n">
-        <v>117.0052706659998</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E25" t="n">
         <v>114.8237602943552</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H25" t="n">
         <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453008</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S25" t="n">
         <v>152.2386502424833</v>
@@ -2533,13 +2533,13 @@
         <v>254.5831063612651</v>
       </c>
       <c r="V25" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W25" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X25" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y25" t="n">
         <v>186.9744509998808</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545724</v>
@@ -2722,7 +2722,7 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707168</v>
       </c>
       <c r="G28" t="n">
         <v>134.0758985510282</v>
@@ -2731,7 +2731,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S28" t="n">
         <v>152.2386502424833</v>
@@ -2767,7 +2767,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V28" t="n">
         <v>220.5274409716141</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T29" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V29" t="n">
         <v>296.142056117921</v>
@@ -2889,7 +2889,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I30" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T30" t="n">
         <v>189.0833237787849</v>
@@ -2956,7 +2956,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F31" t="n">
         <v>113.8108456707173</v>
@@ -2968,7 +2968,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221558</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S31" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T31" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U31" t="n">
         <v>254.5831063612652</v>
@@ -3016,7 +3016,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187942</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D32" t="n">
         <v>323.072839268469</v>
@@ -3038,10 +3038,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894961</v>
       </c>
       <c r="G32" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H32" t="n">
         <v>255.2416659947559</v>
@@ -3080,19 +3080,19 @@
         <v>60.32014642295175</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U32" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V32" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W32" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X32" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y32" t="n">
         <v>354.6277363038396</v>
@@ -3126,7 +3126,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I33" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T33" t="n">
         <v>189.0833237787849</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C34" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D34" t="n">
         <v>117.0052706659984</v>
@@ -3205,7 +3205,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453008</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221576</v>
+        <v>42.04747230221574</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
@@ -3241,16 +3241,16 @@
         <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V34" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W34" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y34" t="n">
         <v>186.9744509998808</v>
@@ -3323,10 +3323,10 @@
         <v>219.3243840645688</v>
       </c>
       <c r="V35" t="n">
-        <v>296.1420561179197</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W35" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651987</v>
       </c>
       <c r="X35" t="n">
         <v>338.1208983262551</v>
@@ -3509,7 +3509,7 @@
         <v>323.072839268469</v>
       </c>
       <c r="E38" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200476</v>
       </c>
       <c r="F38" t="n">
         <v>375.2658433894975</v>
@@ -3551,19 +3551,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V38" t="n">
         <v>296.142056117921</v>
       </c>
       <c r="W38" t="n">
-        <v>317.6307663651987</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X38" t="n">
         <v>338.1208983262551</v>
@@ -3679,7 +3679,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T40" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U40" t="n">
         <v>254.5831063612652</v>
@@ -3727,7 +3727,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3746,7 @@
         <v>323.072839268469</v>
       </c>
       <c r="E41" t="n">
-        <v>350.3201677200476</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F41" t="n">
         <v>375.2658433894975</v>
@@ -3916,7 +3916,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424833</v>
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C44" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D44" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E44" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F44" t="n">
         <v>375.2658433894975</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V44" t="n">
         <v>296.142056117921</v>
@@ -4043,7 +4043,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y44" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="45">
@@ -4141,7 +4141,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E46" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F46" t="n">
         <v>113.8108456707173</v>
@@ -4153,7 +4153,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T46" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U46" t="n">
         <v>254.5831063612652</v>
@@ -4201,7 +4201,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
   </sheetData>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>54.95625031689353</v>
+        <v>37.20508510736298</v>
       </c>
       <c r="C5" t="n">
-        <v>54.95625031689353</v>
+        <v>37.20508510736298</v>
       </c>
       <c r="D5" t="n">
-        <v>54.95625031689353</v>
+        <v>37.20508510736298</v>
       </c>
       <c r="E5" t="n">
-        <v>54.95625031689353</v>
+        <v>37.20508510736298</v>
       </c>
       <c r="F5" t="n">
-        <v>26.91734709398867</v>
+        <v>30.2595843581595</v>
       </c>
       <c r="G5" t="n">
-        <v>12.61490091253248</v>
+        <v>2.220681135254107</v>
       </c>
       <c r="H5" t="n">
-        <v>2.220681135254065</v>
+        <v>2.220681135254107</v>
       </c>
       <c r="I5" t="n">
-        <v>2.220681135254065</v>
+        <v>2.220681135254107</v>
       </c>
       <c r="J5" t="n">
-        <v>2.220681135254065</v>
+        <v>2.220681135254107</v>
       </c>
       <c r="K5" t="n">
-        <v>2.220681135254065</v>
+        <v>29.70161018402368</v>
       </c>
       <c r="L5" t="n">
-        <v>2.220681135254065</v>
+        <v>56.07219866516619</v>
       </c>
       <c r="M5" t="n">
-        <v>2.220681135254065</v>
+        <v>83.55312771393577</v>
       </c>
       <c r="N5" t="n">
-        <v>28.59126961639609</v>
+        <v>83.55312771393577</v>
       </c>
       <c r="O5" t="n">
-        <v>56.07219866516515</v>
+        <v>111.0340567627053</v>
       </c>
       <c r="P5" t="n">
-        <v>83.5531277139342</v>
+        <v>111.0340567627053</v>
       </c>
       <c r="Q5" t="n">
-        <v>111.0340567627033</v>
+        <v>111.0340567627053</v>
       </c>
       <c r="R5" t="n">
-        <v>82.99515353979839</v>
+        <v>82.99515353979996</v>
       </c>
       <c r="S5" t="n">
-        <v>54.95625031689353</v>
+        <v>82.99515353979996</v>
       </c>
       <c r="T5" t="n">
-        <v>54.95625031689353</v>
+        <v>65.24398833026837</v>
       </c>
       <c r="U5" t="n">
-        <v>54.95625031689353</v>
+        <v>37.20508510736298</v>
       </c>
       <c r="V5" t="n">
-        <v>54.95625031689353</v>
+        <v>37.20508510736298</v>
       </c>
       <c r="W5" t="n">
-        <v>54.95625031689353</v>
+        <v>37.20508510736298</v>
       </c>
       <c r="X5" t="n">
-        <v>54.95625031689353</v>
+        <v>37.20508510736298</v>
       </c>
       <c r="Y5" t="n">
-        <v>54.95625031689353</v>
+        <v>37.20508510736298</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82.99515353979839</v>
+        <v>54.95625031689457</v>
       </c>
       <c r="C6" t="n">
-        <v>82.99515353979839</v>
+        <v>54.95625031689457</v>
       </c>
       <c r="D6" t="n">
-        <v>82.99515353979839</v>
+        <v>54.95625031689457</v>
       </c>
       <c r="E6" t="n">
-        <v>82.99515353979839</v>
+        <v>30.2595843581595</v>
       </c>
       <c r="F6" t="n">
-        <v>82.99515353979839</v>
+        <v>30.2595843581595</v>
       </c>
       <c r="G6" t="n">
-        <v>54.95625031689353</v>
+        <v>30.2595843581595</v>
       </c>
       <c r="H6" t="n">
-        <v>30.25958435815893</v>
+        <v>30.2595843581595</v>
       </c>
       <c r="I6" t="n">
-        <v>2.220681135254065</v>
+        <v>2.220681135254107</v>
       </c>
       <c r="J6" t="n">
-        <v>28.59126961639609</v>
+        <v>25.6713835707409</v>
       </c>
       <c r="K6" t="n">
-        <v>28.59126961639609</v>
+        <v>25.6713835707409</v>
       </c>
       <c r="L6" t="n">
-        <v>28.59126961639609</v>
+        <v>53.15231261951048</v>
       </c>
       <c r="M6" t="n">
-        <v>56.07219866516515</v>
+        <v>80.63324166828005</v>
       </c>
       <c r="N6" t="n">
-        <v>83.5531277139342</v>
+        <v>108.1141707170496</v>
       </c>
       <c r="O6" t="n">
-        <v>111.0340567627033</v>
+        <v>111.0340567627053</v>
       </c>
       <c r="P6" t="n">
-        <v>111.0340567627033</v>
+        <v>111.0340567627053</v>
       </c>
       <c r="Q6" t="n">
-        <v>111.0340567627033</v>
+        <v>111.0340567627053</v>
       </c>
       <c r="R6" t="n">
-        <v>82.99515353979839</v>
+        <v>82.99515353979996</v>
       </c>
       <c r="S6" t="n">
-        <v>82.99515353979839</v>
+        <v>82.99515353979996</v>
       </c>
       <c r="T6" t="n">
-        <v>82.99515353979839</v>
+        <v>54.95625031689457</v>
       </c>
       <c r="U6" t="n">
-        <v>82.99515353979839</v>
+        <v>54.95625031689457</v>
       </c>
       <c r="V6" t="n">
-        <v>82.99515353979839</v>
+        <v>54.95625031689457</v>
       </c>
       <c r="W6" t="n">
-        <v>82.99515353979839</v>
+        <v>54.95625031689457</v>
       </c>
       <c r="X6" t="n">
-        <v>82.99515353979839</v>
+        <v>54.95625031689457</v>
       </c>
       <c r="Y6" t="n">
-        <v>82.99515353979839</v>
+        <v>54.95625031689457</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>82.99515353979839</v>
+        <v>30.2595843581595</v>
       </c>
       <c r="C7" t="n">
-        <v>82.99515353979839</v>
+        <v>30.2595843581595</v>
       </c>
       <c r="D7" t="n">
-        <v>82.99515353979839</v>
+        <v>2.220681135254107</v>
       </c>
       <c r="E7" t="n">
-        <v>82.99515353979839</v>
+        <v>2.220681135254107</v>
       </c>
       <c r="F7" t="n">
-        <v>82.99515353979839</v>
+        <v>2.220681135254107</v>
       </c>
       <c r="G7" t="n">
-        <v>58.2984875810638</v>
+        <v>2.220681135254107</v>
       </c>
       <c r="H7" t="n">
-        <v>58.2984875810638</v>
+        <v>2.220681135254107</v>
       </c>
       <c r="I7" t="n">
-        <v>30.25958435815893</v>
+        <v>2.220681135254107</v>
       </c>
       <c r="J7" t="n">
-        <v>2.220681135254065</v>
+        <v>2.220681135254107</v>
       </c>
       <c r="K7" t="n">
-        <v>2.220681135254065</v>
+        <v>29.70161018402368</v>
       </c>
       <c r="L7" t="n">
-        <v>29.70161018402312</v>
+        <v>56.07219866516619</v>
       </c>
       <c r="M7" t="n">
-        <v>57.18253923279218</v>
+        <v>83.55312771393577</v>
       </c>
       <c r="N7" t="n">
-        <v>83.5531277139342</v>
+        <v>83.55312771393577</v>
       </c>
       <c r="O7" t="n">
-        <v>83.5531277139342</v>
+        <v>111.0340567627053</v>
       </c>
       <c r="P7" t="n">
-        <v>111.0340567627033</v>
+        <v>111.0340567627053</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.99515353979839</v>
+        <v>111.0340567627053</v>
       </c>
       <c r="R7" t="n">
-        <v>82.99515353979839</v>
+        <v>111.0340567627053</v>
       </c>
       <c r="S7" t="n">
-        <v>82.99515353979839</v>
+        <v>82.99515353979996</v>
       </c>
       <c r="T7" t="n">
-        <v>82.99515353979839</v>
+        <v>82.99515353979996</v>
       </c>
       <c r="U7" t="n">
-        <v>82.99515353979839</v>
+        <v>82.99515353979996</v>
       </c>
       <c r="V7" t="n">
-        <v>82.99515353979839</v>
+        <v>82.99515353979996</v>
       </c>
       <c r="W7" t="n">
-        <v>82.99515353979839</v>
+        <v>82.99515353979996</v>
       </c>
       <c r="X7" t="n">
-        <v>82.99515353979839</v>
+        <v>54.95625031689457</v>
       </c>
       <c r="Y7" t="n">
-        <v>82.99515353979839</v>
+        <v>30.2595843581595</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>394.155234822363</v>
+        <v>158.8704849235816</v>
       </c>
       <c r="C8" t="n">
-        <v>394.155234822363</v>
+        <v>158.8704849235816</v>
       </c>
       <c r="D8" t="n">
-        <v>394.155234822363</v>
+        <v>158.8704849235816</v>
       </c>
       <c r="E8" t="n">
-        <v>394.155234822363</v>
+        <v>158.8704849235816</v>
       </c>
       <c r="F8" t="n">
         <v>151.9249841743781</v>
@@ -4799,55 +4799,55 @@
         <v>138.8776064512096</v>
       </c>
       <c r="I8" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="J8" t="n">
-        <v>40.41888584470377</v>
+        <v>40.41888584470354</v>
       </c>
       <c r="K8" t="n">
-        <v>122.9820404192961</v>
+        <v>122.9820404192956</v>
       </c>
       <c r="L8" t="n">
-        <v>262.3106962605488</v>
+        <v>262.3106962605484</v>
       </c>
       <c r="M8" t="n">
-        <v>449.0101090859564</v>
+        <v>449.0101090859557</v>
       </c>
       <c r="N8" t="n">
-        <v>643.3443219779388</v>
+        <v>643.3443219779379</v>
       </c>
       <c r="O8" t="n">
-        <v>813.5133472948983</v>
+        <v>813.5133472948972</v>
       </c>
       <c r="P8" t="n">
-        <v>924.2476725444252</v>
+        <v>924.2476725444234</v>
       </c>
       <c r="Q8" t="n">
-        <v>959.2317925660203</v>
+        <v>959.2317925660183</v>
       </c>
       <c r="R8" t="n">
-        <v>959.2317925660203</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="S8" t="n">
-        <v>803.0167550628485</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="T8" t="n">
-        <v>588.2168933305595</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="U8" t="n">
-        <v>588.2168933305595</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="V8" t="n">
-        <v>588.2168933305595</v>
+        <v>717.0015419180339</v>
       </c>
       <c r="W8" t="n">
-        <v>588.2168933305595</v>
+        <v>474.7712912700495</v>
       </c>
       <c r="X8" t="n">
-        <v>394.155234822363</v>
+        <v>232.541040622065</v>
       </c>
       <c r="Y8" t="n">
-        <v>394.155234822363</v>
+        <v>232.541040622065</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>298.218190131598</v>
+        <v>501.8095297991541</v>
       </c>
       <c r="C9" t="n">
-        <v>298.218190131598</v>
+        <v>327.3565005180271</v>
       </c>
       <c r="D9" t="n">
-        <v>298.218190131598</v>
+        <v>178.4220908567759</v>
       </c>
       <c r="E9" t="n">
-        <v>138.9807351261425</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="F9" t="n">
-        <v>138.9807351261425</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="G9" t="n">
-        <v>138.9807351261425</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="H9" t="n">
-        <v>38.06475727094711</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="I9" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="J9" t="n">
-        <v>19.18463585132041</v>
+        <v>85.30141548166289</v>
       </c>
       <c r="K9" t="n">
-        <v>86.79245551467744</v>
+        <v>152.9092351450197</v>
       </c>
       <c r="L9" t="n">
-        <v>224.0220535303714</v>
+        <v>290.1388331607135</v>
       </c>
       <c r="M9" t="n">
-        <v>403.5193898849762</v>
+        <v>469.6361695153181</v>
       </c>
       <c r="N9" t="n">
-        <v>602.1761315376409</v>
+        <v>668.2929111679825</v>
       </c>
       <c r="O9" t="n">
-        <v>827.8052238367445</v>
+        <v>827.8052238367429</v>
       </c>
       <c r="P9" t="n">
-        <v>936.4948513640434</v>
+        <v>936.4948513640416</v>
       </c>
       <c r="Q9" t="n">
-        <v>959.2317925660203</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="R9" t="n">
-        <v>938.1198929682071</v>
+        <v>938.1198929682051</v>
       </c>
       <c r="S9" t="n">
-        <v>938.1198929682071</v>
+        <v>788.6531038308399</v>
       </c>
       <c r="T9" t="n">
-        <v>741.1305971282947</v>
+        <v>591.6638079909275</v>
       </c>
       <c r="U9" t="n">
-        <v>741.1305971282947</v>
+        <v>591.6638079909275</v>
       </c>
       <c r="V9" t="n">
-        <v>505.9784888965519</v>
+        <v>501.8095297991541</v>
       </c>
       <c r="W9" t="n">
-        <v>505.9784888965519</v>
+        <v>501.8095297991541</v>
       </c>
       <c r="X9" t="n">
-        <v>505.9784888965519</v>
+        <v>501.8095297991541</v>
       </c>
       <c r="Y9" t="n">
-        <v>298.218190131598</v>
+        <v>501.8095297991541</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>335.0889566054119</v>
+        <v>486.1505517739561</v>
       </c>
       <c r="C10" t="n">
-        <v>335.0889566054119</v>
+        <v>317.2143688460492</v>
       </c>
       <c r="D10" t="n">
-        <v>184.9723171930762</v>
+        <v>167.0977294337135</v>
       </c>
       <c r="E10" t="n">
-        <v>37.05922361068302</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="F10" t="n">
-        <v>37.05922361068302</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="G10" t="n">
-        <v>37.05922361068302</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="H10" t="n">
-        <v>37.05922361068302</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="I10" t="n">
-        <v>37.05922361068302</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="J10" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="K10" t="n">
-        <v>60.34504070228522</v>
+        <v>120.2325654469301</v>
       </c>
       <c r="L10" t="n">
-        <v>245.1780356031036</v>
+        <v>305.0655603477483</v>
       </c>
       <c r="M10" t="n">
-        <v>450.4476363223416</v>
+        <v>510.3351610669861</v>
       </c>
       <c r="N10" t="n">
-        <v>656.2710011584459</v>
+        <v>716.1585259030903</v>
       </c>
       <c r="O10" t="n">
-        <v>830.3658965470447</v>
+        <v>830.365896547043</v>
       </c>
       <c r="P10" t="n">
-        <v>955.8134731456604</v>
+        <v>955.8134731456586</v>
       </c>
       <c r="Q10" t="n">
-        <v>959.2317925660203</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="R10" t="n">
-        <v>959.2317925660203</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="S10" t="n">
-        <v>959.2317925660203</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="T10" t="n">
-        <v>959.2317925660203</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="U10" t="n">
-        <v>798.111786396927</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="V10" t="n">
-        <v>798.111786396927</v>
+        <v>728.3808024219405</v>
       </c>
       <c r="W10" t="n">
-        <v>555.881535748942</v>
+        <v>486.1505517739561</v>
       </c>
       <c r="X10" t="n">
-        <v>555.881535748942</v>
+        <v>486.1505517739561</v>
       </c>
       <c r="Y10" t="n">
-        <v>335.0889566054119</v>
+        <v>486.1505517739561</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2325.545057758603</v>
+        <v>1866.026662509058</v>
       </c>
       <c r="C11" t="n">
-        <v>1956.582540818192</v>
+        <v>1497.064145568647</v>
       </c>
       <c r="D11" t="n">
-        <v>1598.316842211441</v>
+        <v>1138.798446961896</v>
       </c>
       <c r="E11" t="n">
-        <v>1212.528589613197</v>
+        <v>1138.798446961896</v>
       </c>
       <c r="F11" t="n">
-        <v>801.5426848235895</v>
+        <v>727.8125421722887</v>
       </c>
       <c r="G11" t="n">
         <v>387.2352036347373</v>
@@ -5039,25 +5039,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J11" t="n">
-        <v>337.4933016076839</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K11" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951443</v>
       </c>
       <c r="L11" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M11" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N11" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O11" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P11" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q11" t="n">
         <v>4142.907144767228</v>
@@ -5084,7 +5084,7 @@
         <v>2642.765834548992</v>
       </c>
       <c r="Y11" t="n">
-        <v>2325.545057758603</v>
+        <v>2252.62650257318</v>
       </c>
     </row>
     <row r="12">
@@ -5127,10 +5127,10 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M12" t="n">
-        <v>1381.83934483395</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N12" t="n">
-        <v>1959.694692760353</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="O12" t="n">
         <v>1959.694692760353</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>399.2300543550894</v>
+        <v>845.020870550624</v>
       </c>
       <c r="C13" t="n">
-        <v>399.2300543550894</v>
+        <v>676.0846876227171</v>
       </c>
       <c r="D13" t="n">
-        <v>399.2300543550894</v>
+        <v>525.9680482103813</v>
       </c>
       <c r="E13" t="n">
-        <v>399.2300543550894</v>
+        <v>378.0549546279882</v>
       </c>
       <c r="F13" t="n">
-        <v>252.340106857179</v>
+        <v>378.0549546279882</v>
       </c>
       <c r="G13" t="n">
-        <v>84.98040897511622</v>
+        <v>210.6952567459254</v>
       </c>
       <c r="H13" t="n">
         <v>84.98040897511622</v>
@@ -5230,19 +5230,19 @@
         <v>1798.760544521729</v>
       </c>
       <c r="U13" t="n">
-        <v>1509.676394306093</v>
+        <v>1798.760544521729</v>
       </c>
       <c r="V13" t="n">
-        <v>1254.991906100206</v>
+        <v>1544.076056315842</v>
       </c>
       <c r="W13" t="n">
-        <v>965.5747360632456</v>
+        <v>1254.658886278881</v>
       </c>
       <c r="X13" t="n">
-        <v>801.6710983288592</v>
+        <v>1026.669335380864</v>
       </c>
       <c r="Y13" t="n">
-        <v>580.8785191853291</v>
+        <v>1026.669335380864</v>
       </c>
     </row>
     <row r="14">
@@ -5270,25 +5270,25 @@
         <v>387.2352036347373</v>
       </c>
       <c r="H14" t="n">
-        <v>97.4858416681011</v>
+        <v>97.48584166810105</v>
       </c>
       <c r="I14" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J14" t="n">
-        <v>337.4933016076835</v>
+        <v>337.4933016076842</v>
       </c>
       <c r="K14" t="n">
-        <v>766.6831886951446</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L14" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M14" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N14" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O14" t="n">
         <v>3311.067850233288</v>
@@ -5303,22 +5303,22 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S14" t="n">
-        <v>4249.020448755811</v>
+        <v>4156.161510599079</v>
       </c>
       <c r="T14" t="n">
-        <v>4249.020448755811</v>
+        <v>3953.532414632628</v>
       </c>
       <c r="U14" t="n">
-        <v>4159.581530673302</v>
+        <v>3700.063135423757</v>
       </c>
       <c r="V14" t="n">
-        <v>3828.518643329731</v>
+        <v>3369.000248080186</v>
       </c>
       <c r="W14" t="n">
-        <v>3475.749988059617</v>
+        <v>3016.231592810072</v>
       </c>
       <c r="X14" t="n">
-        <v>3102.284229798537</v>
+        <v>3016.231592810072</v>
       </c>
       <c r="Y14" t="n">
         <v>2712.144897822725</v>
@@ -5361,19 +5361,19 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L15" t="n">
-        <v>973.3971899277775</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M15" t="n">
-        <v>1522.315654538066</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N15" t="n">
-        <v>1959.694692760353</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O15" t="n">
-        <v>1959.694692760353</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P15" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q15" t="n">
         <v>2555.644190323788</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>801.565859948187</v>
+        <v>591.1942975918288</v>
       </c>
       <c r="C16" t="n">
-        <v>632.6296770202802</v>
+        <v>422.2581146639219</v>
       </c>
       <c r="D16" t="n">
-        <v>482.5130376079444</v>
+        <v>272.1414752515861</v>
       </c>
       <c r="E16" t="n">
-        <v>482.5130376079444</v>
+        <v>272.1414752515861</v>
       </c>
       <c r="F16" t="n">
-        <v>482.5130376079444</v>
+        <v>272.1414752515861</v>
       </c>
       <c r="G16" t="n">
-        <v>315.1533397258817</v>
+        <v>104.7817773695234</v>
       </c>
       <c r="H16" t="n">
-        <v>171.9869683152618</v>
+        <v>104.7817773695234</v>
       </c>
       <c r="I16" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J16" t="n">
-        <v>153.8801783755866</v>
+        <v>153.8801783755867</v>
       </c>
       <c r="K16" t="n">
-        <v>396.9405013869775</v>
+        <v>396.9405013869776</v>
       </c>
       <c r="L16" t="n">
-        <v>763.5004667042031</v>
+        <v>763.5004667042033</v>
       </c>
       <c r="M16" t="n">
         <v>1160.375677726126</v>
@@ -5455,31 +5455,31 @@
         <v>2173.396928727846</v>
       </c>
       <c r="Q16" t="n">
-        <v>2279.16862496767</v>
+        <v>2279.168624967671</v>
       </c>
       <c r="R16" t="n">
-        <v>2204.76693339754</v>
+        <v>2279.168624967671</v>
       </c>
       <c r="S16" t="n">
-        <v>2019.061021685724</v>
+        <v>2093.462713255855</v>
       </c>
       <c r="T16" t="n">
-        <v>1798.760544521728</v>
+        <v>1873.162236091859</v>
       </c>
       <c r="U16" t="n">
-        <v>1509.676394306093</v>
+        <v>1584.078085876224</v>
       </c>
       <c r="V16" t="n">
-        <v>1254.991906100206</v>
+        <v>1329.393597670337</v>
       </c>
       <c r="W16" t="n">
-        <v>1254.991906100206</v>
+        <v>1039.976427633376</v>
       </c>
       <c r="X16" t="n">
-        <v>1204.006903921957</v>
+        <v>811.9868767353589</v>
       </c>
       <c r="Y16" t="n">
-        <v>983.2143247784268</v>
+        <v>591.1942975918288</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C17" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D17" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E17" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H17" t="n">
         <v>84.98040897511622</v>
@@ -5513,10 +5513,10 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076835</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951446</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L17" t="n">
         <v>1336.032957050963</v>
@@ -5525,13 +5525,13 @@
         <v>2001.213713746738</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q17" t="n">
         <v>4142.907144767228</v>
@@ -5555,10 +5555,10 @@
         <v>3175.879079437414</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="18">
@@ -5598,22 +5598,22 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L18" t="n">
-        <v>973.3971899277775</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M18" t="n">
-        <v>1428.524759781583</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N18" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O18" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P18" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q18" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R18" t="n">
         <v>2555.644190323788</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502097</v>
+        <v>872.862419750209</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477707</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609044</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E19" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H19" t="n">
         <v>140.0574709897931</v>
@@ -5671,22 +5671,22 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902777</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M19" t="n">
-        <v>1285.552079040892</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N19" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313934</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P19" t="n">
         <v>2392.455631028688</v>
@@ -5701,22 +5701,22 @@
         <v>2333.272818966195</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U19" t="n">
         <v>1887.747186237501</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X19" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E20" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G20" t="n">
         <v>342.8002736162838</v>
@@ -5750,25 +5750,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076835</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951446</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L20" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q20" t="n">
         <v>4142.907144767228</v>
@@ -5777,25 +5777,25 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W20" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="21">
@@ -5835,19 +5835,19 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L21" t="n">
-        <v>973.3971899277775</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M21" t="n">
-        <v>973.3971899277775</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N21" t="n">
-        <v>1453.289737812103</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O21" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P21" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q21" t="n">
         <v>2555.644190323788</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609044</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E22" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F22" t="n">
         <v>386.7245456315384</v>
@@ -5902,7 +5902,7 @@
         <v>251.2943450749443</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I22" t="n">
         <v>84.98040897511622</v>
@@ -5911,13 +5911,13 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443615</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902788</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N22" t="n">
         <v>1709.719201354973</v>
@@ -5953,7 +5953,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y22" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E23" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G23" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J23" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K23" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L23" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P23" t="n">
         <v>3813.656640612703</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W23" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J24" t="n">
-        <v>84.98040897511621</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K24" t="n">
-        <v>388.0214583249805</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L24" t="n">
-        <v>388.0214583249805</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M24" t="n">
-        <v>936.9399229352694</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N24" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O24" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P24" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q24" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R24" t="n">
         <v>2555.644190323788</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502111</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477729</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609044</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E25" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H25" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J25" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M25" t="n">
         <v>1285.552079040893</v>
@@ -6160,37 +6160,37 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112805</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497862</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.09342021658</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943804</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796655</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162835</v>
+        <v>342.8002736162819</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511424</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J26" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951441</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050961</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P26" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437412</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501801</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J27" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K27" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L27" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M27" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N27" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O27" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P27" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q27" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R27" t="n">
         <v>2555.644190323788</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609042</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G28" t="n">
         <v>251.2943450749443</v>
       </c>
       <c r="H28" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042779</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443607</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902781</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M28" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O28" t="n">
         <v>2087.878830313935</v>
@@ -6403,13 +6403,13 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T28" t="n">
         <v>2144.901839127668</v>
@@ -6424,7 +6424,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y28" t="n">
         <v>1022.581387254981</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D29" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796667</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O29" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J30" t="n">
-        <v>84.98040897511625</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K30" t="n">
-        <v>84.98040897511625</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L30" t="n">
-        <v>301.7509472448909</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M30" t="n">
-        <v>850.66941185518</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N30" t="n">
-        <v>1428.524759781582</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O30" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C31" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J31" t="n">
         <v>185.1742787042785</v>
@@ -6625,10 +6625,10 @@
         <v>459.5287020443612</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N31" t="n">
         <v>1709.719201354973</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112805</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497862</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.09342021658</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951445</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="33">
@@ -6771,19 +6771,19 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H33" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J33" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K33" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L33" t="n">
-        <v>973.3971899277778</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M33" t="n">
         <v>1522.315654538067</v>
@@ -6792,13 +6792,13 @@
         <v>2100.171002464469</v>
       </c>
       <c r="O33" t="n">
-        <v>2168.542634771632</v>
+        <v>2143.777656741113</v>
       </c>
       <c r="P33" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="Q33" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R33" t="n">
         <v>2555.644190323788</v>
@@ -6832,58 +6832,58 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502106</v>
+        <v>872.8624197502101</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477723</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609052</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039808</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315391</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J34" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443618</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902793</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
         <v>2144.901839127669</v>
@@ -6892,16 +6892,16 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X34" t="n">
         <v>1211.444469073043</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G35" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K35" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L35" t="n">
         <v>1336.032957050963</v>
@@ -6950,25 +6950,25 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V35" t="n">
         <v>3496.71823738206</v>
@@ -7008,10 +7008,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J36" t="n">
         <v>216.5575109835859</v>
@@ -7029,13 +7029,13 @@
         <v>2100.171002464469</v>
       </c>
       <c r="O36" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P36" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q36" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502101</v>
       </c>
       <c r="C37" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749446</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H37" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L37" t="n">
         <v>857.3827676902786</v>
@@ -7111,7 +7111,7 @@
         <v>2087.878830313936</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q37" t="n">
         <v>2529.521427597205</v>
@@ -7120,19 +7120,19 @@
         <v>2487.049233352543</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U37" t="n">
         <v>1887.747186237502</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X37" t="n">
         <v>1211.444469073043</v>
@@ -7172,13 +7172,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076839</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951443</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M38" t="n">
         <v>2001.213713746738</v>
@@ -7187,7 +7187,7 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P38" t="n">
         <v>3813.656640612703</v>
@@ -7263,16 +7263,16 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>2049.239235375538</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O39" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="P39" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="Q39" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R39" t="n">
         <v>2555.644190323788</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502096</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477713</v>
+        <v>735.8557341477715</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609042</v>
+        <v>617.6685920609044</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039797</v>
+        <v>501.68499580398</v>
       </c>
       <c r="F40" t="n">
-        <v>386.724545631538</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749438</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897926</v>
+        <v>140.0574709897928</v>
       </c>
       <c r="I40" t="n">
         <v>84.98040897511622</v>
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C41" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D41" t="n">
         <v>1458.093420216582</v>
@@ -7409,10 +7409,10 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L41" t="n">
         <v>1336.032957050963</v>
@@ -7421,13 +7421,13 @@
         <v>2001.213713746738</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q41" t="n">
         <v>4142.907144767228</v>
@@ -7445,16 +7445,16 @@
         <v>3795.851627400162</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W41" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="42">
@@ -7497,16 +7497,16 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M42" t="n">
-        <v>973.3971899277776</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>1453.289737812102</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O42" t="n">
-        <v>1959.694692760353</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="P42" t="n">
-        <v>2346.796248312508</v>
+        <v>2487.272558016625</v>
       </c>
       <c r="Q42" t="n">
         <v>2555.644190323788</v>
@@ -7546,10 +7546,10 @@
         <v>872.8624197502097</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609044</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E43" t="n">
         <v>501.6849958039799</v>
@@ -7567,19 +7567,19 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042782</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K43" t="n">
-        <v>459.528702044361</v>
+        <v>459.5287020443609</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902785</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O43" t="n">
         <v>2087.878830313935</v>
@@ -7588,13 +7588,13 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T43" t="n">
         <v>2144.901839127668</v>
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D44" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E44" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511606</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I44" t="n">
         <v>84.98040897511622</v>
@@ -7661,7 +7661,7 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P44" t="n">
         <v>3813.656640612704</v>
@@ -7679,19 +7679,19 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W44" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J45" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K45" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L45" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M45" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N45" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O45" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P45" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502101</v>
       </c>
       <c r="C46" t="n">
         <v>735.8557341477717</v>
@@ -7789,13 +7789,13 @@
         <v>617.6685920609046</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H46" t="n">
         <v>140.0574709897931</v>
@@ -7804,49 +7804,49 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042782</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443609</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902785</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M46" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N46" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P46" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W46" t="n">
         <v>1407.504522645591</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y46" t="n">
         <v>1022.581387254981</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>84.00840552892608</v>
+        <v>84.00840552892578</v>
       </c>
       <c r="K5" t="n">
-        <v>74.65579442398362</v>
+        <v>102.4143086146595</v>
       </c>
       <c r="L5" t="n">
-        <v>55.34260757265835</v>
+        <v>81.9795656344179</v>
       </c>
       <c r="M5" t="n">
-        <v>29.58998355183766</v>
+        <v>57.34849774251333</v>
       </c>
       <c r="N5" t="n">
-        <v>52.04532597896974</v>
+        <v>25.40836791720946</v>
       </c>
       <c r="O5" t="n">
-        <v>65.2208763744195</v>
+        <v>65.22087637441939</v>
       </c>
       <c r="P5" t="n">
-        <v>94.58126940924632</v>
+        <v>66.82275521856994</v>
       </c>
       <c r="Q5" t="n">
-        <v>126.5989604545346</v>
+        <v>98.84044626385837</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>95.67971509877944</v>
+        <v>92.73033525468304</v>
       </c>
       <c r="K6" t="n">
-        <v>39.06080134589656</v>
+        <v>39.06080134589625</v>
       </c>
       <c r="L6" t="n">
-        <v>5.731622200575686</v>
+        <v>33.49013639125161</v>
       </c>
       <c r="M6" t="n">
-        <v>14.8946548623947</v>
+        <v>14.89465486239476</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>24.80913434657961</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>17.1612123938778</v>
+        <v>17.16121239387743</v>
       </c>
       <c r="Q6" t="n">
-        <v>61.89524673347321</v>
+        <v>61.89524673347297</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>69.42916805957655</v>
+        <v>97.18768225025271</v>
       </c>
       <c r="L7" t="n">
-        <v>86.39606921411902</v>
+        <v>85.27451308520308</v>
       </c>
       <c r="M7" t="n">
-        <v>86.29239940719611</v>
+        <v>86.2923994071964</v>
       </c>
       <c r="N7" t="n">
-        <v>75.84214346300448</v>
+        <v>49.20518540124462</v>
       </c>
       <c r="O7" t="n">
-        <v>65.96722444204714</v>
+        <v>93.72573863272326</v>
       </c>
       <c r="P7" t="n">
-        <v>103.4593871884779</v>
+        <v>75.70087299780187</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>73.01783107116334</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>66.78462588923531</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8611,7 +8611,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>46.25131710763737</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
         <v>162.4747015415544</v>
@@ -8623,7 +8623,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
-        <v>163.0416663658825</v>
+        <v>102.5492171288662</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>5.968558980384842e-13</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>255.4020229998823</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>386.4165848007547</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>414.8754244234233</v>
+        <v>14.87542442342334</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>194.0019016021898</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,19 +22595,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>199.2826725088645</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2252865051633</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3114678604996</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>72.99284122478787</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>72.18936963356919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>141.7347076965137</v>
+        <v>17.27700840341254</v>
       </c>
       <c r="I13" t="n">
         <v>86.13649374674407</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1933087134791</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>63.44505403199463</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.93034877516574</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>200.6028050067863</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>162.3900575150987</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>85.1921106185809</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>141.7347076965137</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>66.53313903628097</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>73.65767465442973</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>175.2345032325706</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.151079231931362e-12</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.27897692436818e-12</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.406874616804998e-12</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>4.689582056016661e-13</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1222068.5011059</v>
+        <v>1222068.501105901</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1311392.680862388</v>
+        <v>1311392.680862389</v>
       </c>
     </row>
     <row r="6">
@@ -26314,10 +26314,10 @@
         <v>34416.97740916461</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="D2" t="n">
-        <v>41052.08849321413</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="E2" t="n">
         <v>38337.15909756551</v>
@@ -26326,31 +26326,31 @@
         <v>38337.15909756551</v>
       </c>
       <c r="G2" t="n">
+        <v>41052.08849321414</v>
+      </c>
+      <c r="H2" t="n">
+        <v>41052.08849321417</v>
+      </c>
+      <c r="I2" t="n">
         <v>41052.08849321413</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>41052.08849321414</v>
+      </c>
+      <c r="K2" t="n">
+        <v>41052.08849321414</v>
+      </c>
+      <c r="L2" t="n">
+        <v>41052.08849321416</v>
+      </c>
+      <c r="M2" t="n">
+        <v>41052.08849321414</v>
+      </c>
+      <c r="N2" t="n">
+        <v>41052.08849321415</v>
+      </c>
+      <c r="O2" t="n">
         <v>41052.08849321413</v>
-      </c>
-      <c r="I2" t="n">
-        <v>41052.0884932142</v>
-      </c>
-      <c r="J2" t="n">
-        <v>41052.08849321416</v>
-      </c>
-      <c r="K2" t="n">
-        <v>41052.08849321417</v>
-      </c>
-      <c r="L2" t="n">
-        <v>41052.08849321415</v>
-      </c>
-      <c r="M2" t="n">
-        <v>41052.08849321415</v>
-      </c>
-      <c r="N2" t="n">
-        <v>41052.08849321414</v>
-      </c>
-      <c r="O2" t="n">
-        <v>41052.08849321416</v>
       </c>
       <c r="P2" t="n">
         <v>41052.08849321416</v>
@@ -26366,22 +26366,22 @@
         <v>102426.4069980972</v>
       </c>
       <c r="C3" t="n">
-        <v>171151.3438715932</v>
+        <v>171151.3438715941</v>
       </c>
       <c r="D3" t="n">
-        <v>330566.1828097451</v>
+        <v>330566.1828097436</v>
       </c>
       <c r="E3" t="n">
-        <v>795641.6244428748</v>
+        <v>795641.6244428755</v>
       </c>
       <c r="F3" t="n">
-        <v>2.557953848736361e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.16188177118</v>
+        <v>25288.16188177113</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>7144.153280225912</v>
+        <v>7144.153280226104</v>
       </c>
       <c r="L3" t="n">
-        <v>78955.96516982054</v>
+        <v>78955.96516982009</v>
       </c>
       <c r="M3" t="n">
-        <v>204957.1230692801</v>
+        <v>204957.1230692804</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>316573.0176407669</v>
       </c>
       <c r="C4" t="n">
-        <v>350239.0167037604</v>
+        <v>350239.0167037601</v>
       </c>
       <c r="D4" t="n">
-        <v>255177.1421685144</v>
+        <v>255177.1421685146</v>
       </c>
       <c r="E4" t="n">
         <v>8669.990103765376</v>
       </c>
       <c r="F4" t="n">
-        <v>8669.990103765429</v>
+        <v>8669.990103765391</v>
       </c>
       <c r="G4" t="n">
+        <v>39739.87518598542</v>
+      </c>
+      <c r="H4" t="n">
+        <v>39739.87518598541</v>
+      </c>
+      <c r="I4" t="n">
+        <v>39739.87518598542</v>
+      </c>
+      <c r="J4" t="n">
+        <v>39739.8751859855</v>
+      </c>
+      <c r="K4" t="n">
+        <v>39739.87518598545</v>
+      </c>
+      <c r="L4" t="n">
         <v>39739.87518598553</v>
       </c>
-      <c r="H4" t="n">
-        <v>39739.87518598553</v>
-      </c>
-      <c r="I4" t="n">
-        <v>39739.8751859855</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39739.87518598542</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
+        <v>39739.87518598547</v>
+      </c>
+      <c r="N4" t="n">
+        <v>39739.87518598544</v>
+      </c>
+      <c r="O4" t="n">
+        <v>39739.87518598545</v>
+      </c>
+      <c r="P4" t="n">
         <v>39739.87518598539</v>
-      </c>
-      <c r="L4" t="n">
-        <v>39739.8751859854</v>
-      </c>
-      <c r="M4" t="n">
-        <v>39739.8751859855</v>
-      </c>
-      <c r="N4" t="n">
-        <v>39739.87518598542</v>
-      </c>
-      <c r="O4" t="n">
-        <v>39739.87518598544</v>
-      </c>
-      <c r="P4" t="n">
-        <v>39739.87518598542</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>35944.81206807974</v>
       </c>
       <c r="C5" t="n">
-        <v>41515.23339280506</v>
+        <v>41515.23339280512</v>
       </c>
       <c r="D5" t="n">
-        <v>61145.70223437333</v>
+        <v>61145.70223437329</v>
       </c>
       <c r="E5" t="n">
         <v>92448.996000607</v>
@@ -26491,25 +26491,25 @@
         <v>95106.43410215527</v>
       </c>
       <c r="J5" t="n">
+        <v>95106.43410215525</v>
+      </c>
+      <c r="K5" t="n">
         <v>95106.43410215528</v>
       </c>
-      <c r="K5" t="n">
-        <v>95106.4341021553</v>
-      </c>
       <c r="L5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="M5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="N5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="O5" t="n">
         <v>95106.43410215528</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-420527.2592977792</v>
+        <v>-420859.0148519817</v>
       </c>
       <c r="C6" t="n">
-        <v>-521853.5054749444</v>
+        <v>-521853.5054749452</v>
       </c>
       <c r="D6" t="n">
-        <v>-605836.9387194187</v>
+        <v>-605836.9387194173</v>
       </c>
       <c r="E6" t="n">
-        <v>-858423.4514496818</v>
+        <v>-858559.1979194649</v>
       </c>
       <c r="F6" t="n">
-        <v>-62781.82700680695</v>
+        <v>-62917.57347658931</v>
       </c>
       <c r="G6" t="n">
-        <v>-119082.3826766978</v>
+        <v>-119082.3826766977</v>
       </c>
       <c r="H6" t="n">
-        <v>-93794.22079492666</v>
+        <v>-93794.22079492653</v>
       </c>
       <c r="I6" t="n">
-        <v>-93794.22079492657</v>
+        <v>-93794.22079492656</v>
       </c>
       <c r="J6" t="n">
         <v>-93794.2207949265</v>
       </c>
       <c r="K6" t="n">
-        <v>-100938.3740751524</v>
+        <v>-100938.3740751527</v>
       </c>
       <c r="L6" t="n">
-        <v>-172750.1859647471</v>
+        <v>-172750.1859647467</v>
       </c>
       <c r="M6" t="n">
-        <v>-298751.3438642068</v>
+        <v>-298751.343864207</v>
       </c>
       <c r="N6" t="n">
-        <v>-93794.22079492654</v>
+        <v>-93794.22079492657</v>
       </c>
       <c r="O6" t="n">
-        <v>-93794.22079492657</v>
+        <v>-93794.2207949266</v>
       </c>
       <c r="P6" t="n">
-        <v>-93794.22079492654</v>
+        <v>-93794.22079492651</v>
       </c>
     </row>
   </sheetData>
@@ -26695,37 +26695,37 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.197442310920451e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I2" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J2" t="n">
+        <v>31.61020235221394</v>
+      </c>
+      <c r="K2" t="n">
         <v>31.61020235221395</v>
       </c>
-      <c r="K2" t="n">
-        <v>31.61020235221392</v>
-      </c>
       <c r="L2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="M2" t="n">
         <v>31.61020235221397</v>
       </c>
       <c r="N2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O2" t="n">
         <v>31.61020235221395</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>106.2941315632906</v>
       </c>
       <c r="C3" t="n">
-        <v>284.3998041289898</v>
+        <v>284.3998041289907</v>
       </c>
       <c r="D3" t="n">
-        <v>593.4761003380651</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="E3" t="n">
         <v>1278.159870620123</v>
@@ -26790,10 +26790,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>27.75851419067581</v>
+        <v>27.75851419067634</v>
       </c>
       <c r="D4" t="n">
-        <v>239.8079481415051</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="E4" t="n">
         <v>1062.255112188953</v>
@@ -26811,13 +26811,13 @@
         <v>1062.255112188953</v>
       </c>
       <c r="J4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="K4" t="n">
         <v>1062.255112188953</v>
       </c>
       <c r="L4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="M4" t="n">
         <v>1062.255112188953</v>
@@ -26917,13 +26917,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.197442310920451e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>106.2941315632906</v>
       </c>
       <c r="C3" t="n">
-        <v>178.1056725656991</v>
+        <v>178.1056725657</v>
       </c>
       <c r="D3" t="n">
-        <v>309.0762962090753</v>
+        <v>309.0762962090739</v>
       </c>
       <c r="E3" t="n">
-        <v>684.6837702820577</v>
+        <v>684.6837702820582</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>27.75851419067581</v>
+        <v>27.75851419067634</v>
       </c>
       <c r="D4" t="n">
-        <v>212.0494339508293</v>
+        <v>212.0494339508282</v>
       </c>
       <c r="E4" t="n">
-        <v>822.4471640474477</v>
+        <v>822.4471640474483</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>27.75851419067604</v>
+        <v>27.75851419067679</v>
       </c>
       <c r="L4" t="n">
-        <v>212.0494339508293</v>
+        <v>212.0494339508277</v>
       </c>
       <c r="M4" t="n">
-        <v>822.4471640474476</v>
+        <v>822.4471640474487</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,13 +27154,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.197442310920451e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>27.75851419067581</v>
+        <v>27.75851419067634</v>
       </c>
       <c r="L4" t="n">
-        <v>212.0494339508293</v>
+        <v>212.0494339508282</v>
       </c>
       <c r="M4" t="n">
-        <v>822.4471640474477</v>
+        <v>822.4471640474483</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>127.3318186635983</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>20.45946094095677</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>335.0985819152745</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>194.0019016021898</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>123.0269119439133</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>199.2826725088645</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3114678604996</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>379.1175315510356</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>386.4009075289653</v>
       </c>
       <c r="H5" t="n">
-        <v>317.4755416456645</v>
+        <v>327.76581922517</v>
       </c>
       <c r="I5" t="n">
-        <v>166.3982073646456</v>
+        <v>166.3982073646454</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>50.29179291180992</v>
+        <v>50.29179291180917</v>
       </c>
       <c r="S5" t="n">
-        <v>155.2082467057631</v>
+        <v>182.9667608964388</v>
       </c>
       <c r="T5" t="n">
-        <v>218.0909846693589</v>
+        <v>200.5173311119226</v>
       </c>
       <c r="U5" t="n">
-        <v>251.254187644197</v>
+        <v>223.4956734535207</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27701,19 +27701,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>133.1953811562532</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>108.9732750919555</v>
+        <v>136.7317892826313</v>
       </c>
       <c r="H6" t="n">
-        <v>81.87774145912246</v>
+        <v>106.3274407582697</v>
       </c>
       <c r="I6" t="n">
-        <v>40.57643505307351</v>
+        <v>40.57643505307291</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>34.41853102564674</v>
+        <v>34.4185310256461</v>
       </c>
       <c r="S6" t="n">
-        <v>160.3205940237787</v>
+        <v>160.3205940237786</v>
       </c>
       <c r="T6" t="n">
-        <v>197.6990360533637</v>
+        <v>169.9405218626873</v>
       </c>
       <c r="U6" t="n">
         <v>225.9011368256735</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>120.856958827536</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>143.0284279535051</v>
+        <v>167.4781272526524</v>
       </c>
       <c r="H7" t="n">
         <v>157.6674510576338</v>
       </c>
       <c r="I7" t="n">
-        <v>112.2690992274235</v>
+        <v>140.0276134180992</v>
       </c>
       <c r="J7" t="n">
-        <v>29.34202204548625</v>
+        <v>57.10053623616195</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>15.45915863754112</v>
+        <v>43.21767282821679</v>
       </c>
       <c r="R7" t="n">
-        <v>154.2336957833665</v>
+        <v>154.2336957833664</v>
       </c>
       <c r="S7" t="n">
-        <v>215.0789845203284</v>
+        <v>187.320470329652</v>
       </c>
       <c r="T7" t="n">
         <v>225.754312248927</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>197.9511411983608</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>194.1349540529471</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>309.799991521982</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,7 +27862,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>167.0680976002064</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>87.94431032863031</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>109.4330205759084</v>
       </c>
       <c r="X8" t="n">
-        <v>177.6100587553545</v>
+        <v>129.9231525369644</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27932,10 +27932,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27947,10 +27947,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I9" t="n">
-        <v>26.75448823415623</v>
+        <v>45.4458084395867</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>147.9721212459916</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -27989,7 +27989,7 @@
         <v>225.8573996139459</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>143.8448517395697</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -27998,7 +27998,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28032,7 +28032,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176904</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>126.7518485506946</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>23.59516308119095</v>
       </c>
       <c r="W10" t="n">
-        <v>46.71505019508592</v>
+        <v>46.71505019508641</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221298</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221423</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221446</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I23" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I26" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605694</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I29" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221332</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221537</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I32" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="35">
@@ -30043,10 +30043,10 @@
         <v>31.61020235221397</v>
       </c>
       <c r="V35" t="n">
-        <v>31.6102023522152</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221429</v>
       </c>
       <c r="X35" t="n">
         <v>31.61020235221397</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221417</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605497</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221429</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="41">
@@ -30466,7 +30466,7 @@
         <v>31.61020235221395</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221417</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F41" t="n">
         <v>31.61020235221395</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605497</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.143315795493425</v>
+        <v>1.143315795493429</v>
       </c>
       <c r="H5" t="n">
-        <v>11.70898289059705</v>
+        <v>11.70898289059708</v>
       </c>
       <c r="I5" t="n">
-        <v>44.07768220576033</v>
+        <v>44.07768220576047</v>
       </c>
       <c r="J5" t="n">
-        <v>97.03749899776021</v>
+        <v>97.03749899776051</v>
       </c>
       <c r="K5" t="n">
-        <v>145.4340566209969</v>
+        <v>145.4340566209974</v>
       </c>
       <c r="L5" t="n">
-        <v>180.4238073973289</v>
+        <v>180.4238073973295</v>
       </c>
       <c r="M5" t="n">
-        <v>200.7562496754351</v>
+        <v>200.7562496754357</v>
       </c>
       <c r="N5" t="n">
-        <v>204.0046956793808</v>
+        <v>204.0046956793815</v>
       </c>
       <c r="O5" t="n">
-        <v>192.635849237943</v>
+        <v>192.6358492379437</v>
       </c>
       <c r="P5" t="n">
-        <v>164.4102405366991</v>
+        <v>164.4102405366996</v>
       </c>
       <c r="Q5" t="n">
-        <v>123.4652436105907</v>
+        <v>123.4652436105911</v>
       </c>
       <c r="R5" t="n">
-        <v>71.81881083866395</v>
+        <v>71.81881083866418</v>
       </c>
       <c r="S5" t="n">
-        <v>26.05330868980646</v>
+        <v>26.05330868980654</v>
       </c>
       <c r="T5" t="n">
-        <v>5.004864894772473</v>
+        <v>5.004864894772489</v>
       </c>
       <c r="U5" t="n">
-        <v>0.09146526363947402</v>
+        <v>0.09146526363947431</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6117278805793366</v>
+        <v>0.6117278805793385</v>
       </c>
       <c r="H6" t="n">
-        <v>5.908003478226751</v>
+        <v>5.90800347822677</v>
       </c>
       <c r="I6" t="n">
-        <v>21.06168360766576</v>
+        <v>21.06168360766582</v>
       </c>
       <c r="J6" t="n">
-        <v>57.79486962964689</v>
+        <v>57.79486962964707</v>
       </c>
       <c r="K6" t="n">
-        <v>98.78063762846243</v>
+        <v>98.78063762846274</v>
       </c>
       <c r="L6" t="n">
-        <v>132.8227575792985</v>
+        <v>132.8227575792989</v>
       </c>
       <c r="M6" t="n">
-        <v>154.9978932502994</v>
+        <v>154.9978932502999</v>
       </c>
       <c r="N6" t="n">
-        <v>159.1002262740091</v>
+        <v>159.1002262740096</v>
       </c>
       <c r="O6" t="n">
-        <v>145.5456242885406</v>
+        <v>145.5456242885411</v>
       </c>
       <c r="P6" t="n">
-        <v>116.8131950204524</v>
+        <v>116.8131950204528</v>
       </c>
       <c r="Q6" t="n">
-        <v>78.0865273525483</v>
+        <v>78.08652735254854</v>
       </c>
       <c r="R6" t="n">
-        <v>37.98078893632058</v>
+        <v>37.9807889363207</v>
       </c>
       <c r="S6" t="n">
-        <v>11.36257708005916</v>
+        <v>11.3625770800592</v>
       </c>
       <c r="T6" t="n">
-        <v>2.465692641457939</v>
+        <v>2.465692641457947</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04024525530127215</v>
+        <v>0.04024525530127229</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.512852105806375</v>
+        <v>0.5128521058063766</v>
       </c>
       <c r="H7" t="n">
-        <v>4.559721449805774</v>
+        <v>4.559721449805788</v>
       </c>
       <c r="I7" t="n">
-        <v>15.42286150915899</v>
+        <v>15.42286150915904</v>
       </c>
       <c r="J7" t="n">
-        <v>36.25864388051071</v>
+        <v>36.25864388051082</v>
       </c>
       <c r="K7" t="n">
-        <v>59.58409011095883</v>
+        <v>59.58409011095902</v>
       </c>
       <c r="L7" t="n">
-        <v>76.24712125779507</v>
+        <v>76.24712125779531</v>
       </c>
       <c r="M7" t="n">
-        <v>80.39189873108475</v>
+        <v>80.39189873108501</v>
       </c>
       <c r="N7" t="n">
-        <v>78.48035906398833</v>
+        <v>78.48035906398857</v>
       </c>
       <c r="O7" t="n">
-        <v>72.48931400979565</v>
+        <v>72.48931400979588</v>
       </c>
       <c r="P7" t="n">
-        <v>62.02713105134554</v>
+        <v>62.02713105134574</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.94437042347746</v>
+        <v>42.94437042347759</v>
       </c>
       <c r="R7" t="n">
-        <v>23.059695593803</v>
+        <v>23.05969559380307</v>
       </c>
       <c r="S7" t="n">
-        <v>8.937613516643822</v>
+        <v>8.93761351664385</v>
       </c>
       <c r="T7" t="n">
-        <v>2.191277179354511</v>
+        <v>2.191277179354518</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0279737512258023</v>
+        <v>0.02797375122580239</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.38583356919825</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H8" t="n">
-        <v>24.43391804055158</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I8" t="n">
-        <v>91.97984867651562</v>
+        <v>91.97984867651554</v>
       </c>
       <c r="J8" t="n">
-        <v>202.4946418937401</v>
+        <v>202.49464189374</v>
       </c>
       <c r="K8" t="n">
-        <v>303.4869768779021</v>
+        <v>303.4869768779019</v>
       </c>
       <c r="L8" t="n">
-        <v>376.5024309712531</v>
+        <v>376.5024309712528</v>
       </c>
       <c r="M8" t="n">
-        <v>418.9314987074825</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N8" t="n">
-        <v>425.710248335967</v>
+        <v>425.7102483359667</v>
       </c>
       <c r="O8" t="n">
-        <v>401.9861157822519</v>
+        <v>401.9861157822516</v>
       </c>
       <c r="P8" t="n">
-        <v>343.0858495426701</v>
+        <v>343.0858495426698</v>
       </c>
       <c r="Q8" t="n">
-        <v>257.6431848457577</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>149.8691179411496</v>
       </c>
       <c r="S8" t="n">
-        <v>54.36718245810517</v>
+        <v>54.36718245810513</v>
       </c>
       <c r="T8" t="n">
-        <v>10.44398644916534</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.276533498840366</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H9" t="n">
         <v>12.32862615985301</v>
       </c>
       <c r="I9" t="n">
-        <v>43.95082441182841</v>
+        <v>43.95082441182838</v>
       </c>
       <c r="J9" t="n">
-        <v>120.6044214847383</v>
+        <v>120.6044214847382</v>
       </c>
       <c r="K9" t="n">
-        <v>206.1321659070429</v>
+        <v>206.1321659070427</v>
       </c>
       <c r="L9" t="n">
-        <v>277.1701353512822</v>
+        <v>277.170135351282</v>
       </c>
       <c r="M9" t="n">
-        <v>323.4444746842454</v>
+        <v>323.4444746842452</v>
       </c>
       <c r="N9" t="n">
-        <v>332.0050874900653</v>
+        <v>332.0050874900651</v>
       </c>
       <c r="O9" t="n">
-        <v>303.7197925947077</v>
+        <v>303.7197925947075</v>
       </c>
       <c r="P9" t="n">
-        <v>243.7619099671574</v>
+        <v>243.7619099671572</v>
       </c>
       <c r="Q9" t="n">
-        <v>162.9483813607457</v>
+        <v>162.9483813607456</v>
       </c>
       <c r="R9" t="n">
-        <v>79.25705355080804</v>
+        <v>79.25705355080798</v>
       </c>
       <c r="S9" t="n">
-        <v>23.71104985784626</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T9" t="n">
-        <v>5.145325813308317</v>
+        <v>5.145325813308313</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.08398246702897144</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.070202803888314</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H10" t="n">
-        <v>9.515075838207016</v>
+        <v>9.515075838207009</v>
       </c>
       <c r="I10" t="n">
-        <v>32.18391704784131</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J10" t="n">
-        <v>75.66333823490379</v>
+        <v>75.66333823490373</v>
       </c>
       <c r="K10" t="n">
-        <v>124.3381075790241</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L10" t="n">
-        <v>159.1099695889954</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M10" t="n">
-        <v>167.7591540676927</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N10" t="n">
-        <v>163.7702163441091</v>
+        <v>163.770216344109</v>
       </c>
       <c r="O10" t="n">
-        <v>151.2683017714137</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P10" t="n">
-        <v>129.436164572092</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q10" t="n">
-        <v>89.61489115104783</v>
+        <v>89.61489115104776</v>
       </c>
       <c r="R10" t="n">
-        <v>48.12020970937817</v>
+        <v>48.12020970937814</v>
       </c>
       <c r="S10" t="n">
-        <v>18.65071613685361</v>
+        <v>18.6507161368536</v>
       </c>
       <c r="T10" t="n">
-        <v>4.572684707522795</v>
+        <v>4.572684707522791</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,13 +31847,13 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M12" t="n">
-        <v>554.7018671605765</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N12" t="n">
-        <v>715.0339827160628</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>584.3932527497839</v>
       </c>
       <c r="P12" t="n">
         <v>524.986079689235</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H14" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I14" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J14" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K14" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L14" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M14" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N14" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O14" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P14" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q14" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R14" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S14" t="n">
         <v>117.0897208110796</v>
@@ -32069,34 +32069,34 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H15" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I15" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J15" t="n">
         <v>259.7437903115855</v>
       </c>
       <c r="K15" t="n">
-        <v>443.9435090247269</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L15" t="n">
-        <v>596.9368339155583</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M15" t="n">
-        <v>696.5971294879668</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N15" t="n">
-        <v>573.1387203886732</v>
+        <v>272.5760810583997</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P15" t="n">
-        <v>524.9860796892349</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q15" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H16" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I16" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J16" t="n">
         <v>162.9549067838146</v>
@@ -32160,31 +32160,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L16" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M16" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N16" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O16" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P16" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q16" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R16" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S16" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T16" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U16" t="n">
         <v>0.1257206430118155</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H17" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I17" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L17" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N17" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R17" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S17" t="n">
         <v>117.0897208110796</v>
@@ -32306,37 +32306,37 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H18" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J18" t="n">
         <v>259.7437903115855</v>
       </c>
       <c r="K18" t="n">
-        <v>443.9435090247269</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L18" t="n">
-        <v>596.9368339155583</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M18" t="n">
-        <v>601.8588519561656</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578282</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P18" t="n">
-        <v>524.9860796892349</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>170.6946332877213</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>51.06610426486996</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H19" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I19" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J19" t="n">
         <v>162.9549067838146</v>
@@ -32397,31 +32397,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L19" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M19" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N19" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P19" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q19" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R19" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H20" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I20" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L20" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N20" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R20" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S20" t="n">
         <v>117.0897208110796</v>
@@ -32543,34 +32543,34 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H21" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J21" t="n">
         <v>259.7437903115855</v>
       </c>
       <c r="K21" t="n">
-        <v>443.9435090247269</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L21" t="n">
-        <v>596.9368339155583</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N21" t="n">
-        <v>616.0816594412378</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578282</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P21" t="n">
-        <v>524.9860796892349</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H22" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I22" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J22" t="n">
         <v>162.9549067838146</v>
@@ -32634,31 +32634,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L22" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M22" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N22" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O22" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P22" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q22" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R22" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S22" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H23" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I23" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J23" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K23" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L23" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M23" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N23" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O23" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P23" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q23" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R23" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S23" t="n">
         <v>117.0897208110796</v>
@@ -32780,37 +32780,37 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H24" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I24" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K24" t="n">
-        <v>443.9435090247269</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M24" t="n">
-        <v>696.5971294879668</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N24" t="n">
-        <v>627.8920523321352</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578282</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P24" t="n">
-        <v>524.9860796892349</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>170.6946332877213</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>51.06610426486996</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H25" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I25" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J25" t="n">
         <v>162.9549067838146</v>
@@ -32871,31 +32871,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L25" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M25" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N25" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O25" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P25" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q25" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R25" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S25" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T25" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U25" t="n">
         <v>0.1257206430118155</v>
@@ -33023,13 +33023,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L27" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M27" t="n">
         <v>696.5971294879669</v>
@@ -33038,16 +33038,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O27" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P27" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>51.06610426486996</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H29" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I29" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J29" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K29" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L29" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M29" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N29" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O29" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P29" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q29" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R29" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S29" t="n">
         <v>117.0897208110796</v>
@@ -33214,7 +33214,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H30" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I30" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L30" t="n">
-        <v>357.5145194463132</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M30" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N30" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O30" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P30" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T30" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33339,10 +33339,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J31" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K31" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L31" t="n">
         <v>342.6725659692048</v>
@@ -33354,22 +33354,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O31" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P31" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q31" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R31" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S31" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T31" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U31" t="n">
         <v>0.1257206430118155</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H32" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I32" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J32" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K32" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L32" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M32" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N32" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O32" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P32" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q32" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R32" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S32" t="n">
         <v>117.0897208110796</v>
@@ -33451,7 +33451,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H33" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I33" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J33" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K33" t="n">
-        <v>443.9435090247271</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L33" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M33" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N33" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O33" t="n">
-        <v>211.6584993001647</v>
+        <v>186.643369976408</v>
       </c>
       <c r="P33" t="n">
-        <v>524.9860796892351</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S33" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T33" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33576,10 +33576,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J34" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K34" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L34" t="n">
         <v>342.6725659692048</v>
@@ -33591,22 +33591,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O34" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P34" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q34" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R34" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S34" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T34" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U34" t="n">
         <v>0.1257206430118155</v>
@@ -33749,16 +33749,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O36" t="n">
-        <v>366.6975250682018</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>51.06610426486996</v>
@@ -33983,10 +33983,10 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N39" t="n">
-        <v>663.5877533333045</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578283</v>
+        <v>577.6550422513128</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33995,7 +33995,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S39" t="n">
         <v>51.06610426486996</v>
@@ -34217,19 +34217,19 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N42" t="n">
-        <v>616.0816594412372</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578283</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>524.986079689235</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691326</v>
+        <v>209.0440289417422</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34381,10 +34381,10 @@
         <v>916.8452708117591</v>
       </c>
       <c r="O44" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565688</v>
       </c>
       <c r="P44" t="n">
-        <v>738.8984405829633</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q44" t="n">
         <v>554.8819566972011</v>
@@ -34445,13 +34445,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L45" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M45" t="n">
         <v>696.5971294879669</v>
@@ -34460,16 +34460,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578283</v>
+        <v>211.6584993001651</v>
       </c>
       <c r="P45" t="n">
         <v>524.986079689235</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486996</v>
@@ -34936,25 +34936,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>27.75851419067634</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>26.63695806176011</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>27.75851419067634</v>
       </c>
       <c r="N5" t="n">
-        <v>26.63695806175962</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>27.75851419067581</v>
+        <v>27.75851419067634</v>
       </c>
       <c r="P5" t="n">
-        <v>27.75851419067581</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>27.75851419067581</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>26.63695806175962</v>
+        <v>23.68757821766343</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>27.75851419067634</v>
       </c>
       <c r="M6" t="n">
-        <v>27.75851419067581</v>
+        <v>27.75851419067634</v>
       </c>
       <c r="N6" t="n">
-        <v>27.75851419067581</v>
+        <v>27.75851419067634</v>
       </c>
       <c r="O6" t="n">
-        <v>27.75851419067581</v>
+        <v>2.949379844096683</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>27.75851419067634</v>
       </c>
       <c r="L7" t="n">
-        <v>27.75851419067581</v>
+        <v>26.63695806176011</v>
       </c>
       <c r="M7" t="n">
-        <v>27.75851419067581</v>
+        <v>27.75851419067634</v>
       </c>
       <c r="N7" t="n">
-        <v>26.63695806175962</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>27.75851419067634</v>
       </c>
       <c r="P7" t="n">
-        <v>27.75851419067581</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>21.4487373670537</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>83.39712583292135</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>140.7360160012656</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>188.5852654802094</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>196.2971847393758</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>171.8879043605649</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>111.8528537874002</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>35.33749497130796</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>66.78462588923487</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>68.2907269326837</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>138.6157555714078</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>181.3104407622268</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>200.6633754067318</v>
       </c>
       <c r="O9" t="n">
-        <v>227.9081740394986</v>
+        <v>161.123548150263</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528271</v>
+        <v>109.7875025528269</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>22.96660727472408</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,25 +35331,25 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>41.57616651612607</v>
+        <v>102.0686157531411</v>
       </c>
       <c r="L10" t="n">
-        <v>186.6999948493115</v>
+        <v>186.6999948493114</v>
       </c>
       <c r="M10" t="n">
-        <v>207.3430310295333</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N10" t="n">
-        <v>207.9023887233377</v>
+        <v>207.9023887233376</v>
       </c>
       <c r="O10" t="n">
-        <v>175.8534296854534</v>
+        <v>115.3609804484371</v>
       </c>
       <c r="P10" t="n">
-        <v>126.7147238369855</v>
+        <v>126.7147238369854</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.452847899353443</v>
+        <v>3.452847899353372</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M12" t="n">
-        <v>412.5678332385582</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N12" t="n">
-        <v>583.6922706327296</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>441.7970083053394</v>
       </c>
       <c r="P12" t="n">
         <v>391.0116722749048</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116848</v>
       </c>
       <c r="K14" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L14" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M14" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N14" t="n">
-        <v>687.4322072151701</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O14" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P14" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q14" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R14" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>306.102070050368</v>
       </c>
       <c r="L15" t="n">
-        <v>458.3824541356841</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M15" t="n">
-        <v>554.4630955659484</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N15" t="n">
-        <v>441.7970083053398</v>
+        <v>141.2343689750664</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P15" t="n">
-        <v>391.0116722749046</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>69.59572666714183</v>
+        <v>69.59572666714186</v>
       </c>
       <c r="K16" t="n">
-        <v>245.5154777892837</v>
+        <v>245.5154777892838</v>
       </c>
       <c r="L16" t="n">
-        <v>370.2625912295208</v>
+        <v>370.2625912295209</v>
       </c>
       <c r="M16" t="n">
-        <v>400.8840515372958</v>
+        <v>400.8840515372959</v>
       </c>
       <c r="N16" t="n">
         <v>396.8414363488768</v>
       </c>
       <c r="O16" t="n">
-        <v>350.3692208386572</v>
+        <v>350.3692208386573</v>
       </c>
       <c r="P16" t="n">
         <v>276.0431317030919</v>
       </c>
       <c r="Q16" t="n">
-        <v>106.8400972119441</v>
+        <v>106.8400972119442</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K17" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N17" t="n">
-        <v>687.4322072151701</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P17" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227526</v>
       </c>
       <c r="R17" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>306.102070050368</v>
       </c>
       <c r="L18" t="n">
-        <v>458.3824541356841</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M18" t="n">
-        <v>459.7248180341472</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O18" t="n">
-        <v>511.5201565133838</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749046</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.01512932375738</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36042,10 +36042,10 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817338</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M19" t="n">
         <v>432.4942538895098</v>
@@ -36057,7 +36057,7 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P19" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q19" t="n">
         <v>138.4502995641581</v>
@@ -36121,28 +36121,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K20" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L20" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381588</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N20" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P20" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R20" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>306.102070050368</v>
       </c>
       <c r="L21" t="n">
-        <v>458.3824541356841</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N21" t="n">
-        <v>484.7399473579044</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O21" t="n">
-        <v>511.5201565133838</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749046</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L22" t="n">
         <v>401.8727935817349</v>
@@ -36358,28 +36358,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K23" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L23" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M23" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N23" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O23" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P23" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R23" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K24" t="n">
         <v>306.102070050368</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M24" t="n">
-        <v>554.4630955659484</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
-        <v>496.5503402488019</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O24" t="n">
-        <v>511.5201565133838</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749046</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.01512932375738</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36516,10 +36516,10 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L25" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M25" t="n">
         <v>432.4942538895098</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.966552622204722e-12</v>
       </c>
       <c r="J26" t="n">
         <v>255.0635279116842</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L27" t="n">
-        <v>218.9601396664396</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M27" t="n">
         <v>554.4630955659486</v>
@@ -36686,16 +36686,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O27" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P27" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,10 +36753,10 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M28" t="n">
         <v>432.4942538895098</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K29" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L29" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M29" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381577</v>
       </c>
       <c r="N29" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O29" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P29" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q29" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R29" t="n">
         <v>107.1851555440239</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L30" t="n">
-        <v>218.960139666439</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M30" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N30" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O30" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36996,10 +36996,10 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O31" t="n">
         <v>381.9794231908712</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K32" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L32" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M32" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N32" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O32" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P32" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q32" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R32" t="n">
         <v>107.1851555440239</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K33" t="n">
-        <v>306.1020700503681</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L33" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M33" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N33" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O33" t="n">
-        <v>69.06225485572025</v>
+        <v>44.04712553196353</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749049</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37397,16 +37397,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O36" t="n">
-        <v>224.1012806237574</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37631,10 +37631,10 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N39" t="n">
-        <v>532.2460412499712</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O39" t="n">
-        <v>511.5201565133839</v>
+        <v>435.0587978068684</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L40" t="n">
         <v>401.8727935817349</v>
@@ -37789,7 +37789,7 @@
         <v>671.8997542381569</v>
       </c>
       <c r="N41" t="n">
-        <v>687.4322072151681</v>
+        <v>687.432207215169</v>
       </c>
       <c r="O41" t="n">
         <v>635.6527791348809</v>
@@ -37865,19 +37865,19 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
-        <v>484.7399473579039</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O42" t="n">
-        <v>511.5201565133839</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>391.0116722749048</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831111</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38029,10 +38029,10 @@
         <v>687.4322072151681</v>
       </c>
       <c r="O44" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348821</v>
       </c>
       <c r="P44" t="n">
-        <v>507.6654448276938</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q44" t="n">
         <v>332.5762668227516</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L45" t="n">
-        <v>218.9601396664396</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M45" t="n">
         <v>554.4630955659486</v>
@@ -38108,16 +38108,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O45" t="n">
-        <v>511.5201565133839</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="P45" t="n">
         <v>391.0116722749048</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L46" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M46" t="n">
         <v>432.4942538895098</v>
@@ -38190,7 +38190,7 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P46" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q46" t="n">
         <v>138.4502995641581</v>
